--- a/code/PhaseI/data/iccps/Feeder5.xlsx
+++ b/code/PhaseI/data/iccps/Feeder5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Time</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Consumer_5_1</t>
+  </si>
+  <si>
+    <t>Net_Consumption_5</t>
   </si>
 </sst>
 </file>
@@ -364,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,7 +380,7 @@
     <col min="11" max="14" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,8 +408,11 @@
       <c r="I1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -434,8 +440,12 @@
       <c r="I2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>SUM(B2:I2)</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -463,8 +473,12 @@
       <c r="I3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="0">SUM(B3:I3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -492,8 +506,12 @@
       <c r="I4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>2.6999999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -521,8 +539,12 @@
       <c r="I5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -550,8 +572,12 @@
       <c r="I6">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -579,8 +605,12 @@
       <c r="I7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
@@ -608,8 +638,12 @@
       <c r="I8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -637,8 +671,12 @@
       <c r="I9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -666,8 +704,12 @@
       <c r="I10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
@@ -695,8 +737,12 @@
       <c r="I11">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -724,8 +770,12 @@
       <c r="I12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.11458333333333333</v>
       </c>
@@ -753,8 +803,12 @@
       <c r="I13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
@@ -782,8 +836,12 @@
       <c r="I14">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.13541666666666666</v>
       </c>
@@ -811,8 +869,12 @@
       <c r="I15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -840,8 +902,12 @@
       <c r="I16">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
@@ -869,8 +935,12 @@
       <c r="I17">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -898,8 +968,12 @@
       <c r="I18">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -927,8 +1001,12 @@
       <c r="I19">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
@@ -956,8 +1034,12 @@
       <c r="I20">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -985,8 +1067,12 @@
       <c r="I21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1014,8 +1100,12 @@
       <c r="I22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -1043,8 +1133,12 @@
       <c r="I23">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -1072,8 +1166,12 @@
       <c r="I24">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.23958333333333334</v>
       </c>
@@ -1101,8 +1199,12 @@
       <c r="I25">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>2.6999999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -1130,8 +1232,12 @@
       <c r="I26">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -1159,8 +1265,12 @@
       <c r="I27">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>3.4999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -1188,8 +1298,12 @@
       <c r="I28">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -1217,8 +1331,12 @@
       <c r="I29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -1246,8 +1364,12 @@
       <c r="I30">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.30208333333333331</v>
       </c>
@@ -1275,8 +1397,12 @@
       <c r="I31">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -1304,8 +1430,12 @@
       <c r="I32">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -1333,8 +1463,12 @@
       <c r="I33">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -1362,8 +1496,12 @@
       <c r="I34">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -1391,8 +1529,12 @@
       <c r="I35">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -1420,8 +1562,12 @@
       <c r="I36">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -1449,8 +1595,12 @@
       <c r="I37">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
@@ -1478,8 +1628,12 @@
       <c r="I38">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.38541666666666669</v>
       </c>
@@ -1507,8 +1661,12 @@
       <c r="I39">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -1536,8 +1694,12 @@
       <c r="I40">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -1565,8 +1727,12 @@
       <c r="I41">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -1594,8 +1760,12 @@
       <c r="I42">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.42708333333333331</v>
       </c>
@@ -1623,8 +1793,12 @@
       <c r="I43">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
@@ -1652,8 +1826,12 @@
       <c r="I44">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.44791666666666669</v>
       </c>
@@ -1681,8 +1859,12 @@
       <c r="I45">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -1710,8 +1892,12 @@
       <c r="I46">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
@@ -1739,8 +1925,12 @@
       <c r="I47">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -1768,8 +1958,12 @@
       <c r="I48">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -1797,8 +1991,12 @@
       <c r="I49">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.5</v>
       </c>
@@ -1826,8 +2024,12 @@
       <c r="I50">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.51041666666666663</v>
       </c>
@@ -1855,8 +2057,12 @@
       <c r="I51">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -1884,8 +2090,12 @@
       <c r="I52">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.53125</v>
       </c>
@@ -1913,8 +2123,12 @@
       <c r="I53">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>6.3000000000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -1942,8 +2156,12 @@
       <c r="I54">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.55208333333333337</v>
       </c>
@@ -1971,8 +2189,12 @@
       <c r="I55">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.5625</v>
       </c>
@@ -2000,8 +2222,12 @@
       <c r="I56">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.57291666666666663</v>
       </c>
@@ -2029,8 +2255,12 @@
       <c r="I57">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -2058,8 +2288,12 @@
       <c r="I58">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
@@ -2087,8 +2321,12 @@
       <c r="I59">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -2116,8 +2354,12 @@
       <c r="I60">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.61458333333333337</v>
       </c>
@@ -2145,8 +2387,12 @@
       <c r="I61">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.625</v>
       </c>
@@ -2174,8 +2420,12 @@
       <c r="I62">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.63541666666666663</v>
       </c>
@@ -2203,8 +2453,12 @@
       <c r="I63">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>4.6000000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -2232,8 +2486,12 @@
       <c r="I64">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>4.6000000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.65625</v>
       </c>
@@ -2261,8 +2519,12 @@
       <c r="I65">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -2290,8 +2552,12 @@
       <c r="I66">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.67708333333333337</v>
       </c>
@@ -2319,8 +2585,12 @@
       <c r="I67">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <f t="shared" ref="J67:J97" si="1">SUM(B67:I67)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
@@ -2348,8 +2618,12 @@
       <c r="I68">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -2377,8 +2651,12 @@
       <c r="I69">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -2406,8 +2684,12 @@
       <c r="I70">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
@@ -2435,8 +2717,12 @@
       <c r="I71">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -2464,8 +2750,12 @@
       <c r="I72">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.73958333333333337</v>
       </c>
@@ -2493,8 +2783,12 @@
       <c r="I73">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.75</v>
       </c>
@@ -2522,8 +2816,12 @@
       <c r="I74">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.76041666666666663</v>
       </c>
@@ -2551,8 +2849,12 @@
       <c r="I75">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <f t="shared" si="1"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -2580,8 +2882,12 @@
       <c r="I76">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.78125</v>
       </c>
@@ -2609,8 +2915,12 @@
       <c r="I77">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -2638,8 +2948,12 @@
       <c r="I78">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -2667,8 +2981,12 @@
       <c r="I79">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.8125</v>
       </c>
@@ -2696,8 +3014,12 @@
       <c r="I80">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -2725,8 +3047,12 @@
       <c r="I81">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -2754,8 +3080,12 @@
       <c r="I82">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.84375</v>
       </c>
@@ -2783,8 +3113,12 @@
       <c r="I83">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -2812,8 +3146,12 @@
       <c r="I84">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.86458333333333337</v>
       </c>
@@ -2841,8 +3179,12 @@
       <c r="I85">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>6.3000000000000007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.875</v>
       </c>
@@ -2870,8 +3212,12 @@
       <c r="I86">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.88541666666666663</v>
       </c>
@@ -2899,8 +3245,12 @@
       <c r="I87">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -2928,8 +3278,12 @@
       <c r="I88">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.90625</v>
       </c>
@@ -2957,8 +3311,12 @@
       <c r="I89">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -2986,8 +3344,12 @@
       <c r="I90">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.92708333333333337</v>
       </c>
@@ -3015,8 +3377,12 @@
       <c r="I91">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.9375</v>
       </c>
@@ -3044,8 +3410,12 @@
       <c r="I92">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.94791666666666663</v>
       </c>
@@ -3073,8 +3443,12 @@
       <c r="I93">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999993</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -3102,8 +3476,12 @@
       <c r="I94">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.96875</v>
       </c>
@@ -3131,8 +3509,12 @@
       <c r="I95">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -3160,8 +3542,12 @@
       <c r="I96">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.98958333333333337</v>
       </c>
@@ -3188,6 +3574,10 @@
       </c>
       <c r="I97">
         <v>0.4</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="1"/>
+        <v>3.6999999999999997</v>
       </c>
     </row>
   </sheetData>
